--- a/experiments/pg/return_discount_increment/mlp_3x182_corr_entropy_inp_time_step_3e_4_no_norm/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_corr_entropy_inp_time_step_3e_4_no_norm/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2679"/>
+  <dimension ref="A1:C2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35259,6 +35259,331 @@
         <v>14.87403651390632</v>
       </c>
     </row>
+    <row r="2680">
+      <c r="A2680" s="1" t="n">
+        <v>2678</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>[4, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2680" t="n">
+        <v>13.99555079165458</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="1" t="n">
+        <v>2679</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>[3, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2681" t="n">
+        <v>14.21189433696444</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="1" t="n">
+        <v>2680</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>[7, 4, 0]</t>
+        </is>
+      </c>
+      <c r="C2682" t="n">
+        <v>14.8667839404108</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" s="1" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>[5, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C2683" t="n">
+        <v>14.50935990001605</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" s="1" t="n">
+        <v>2682</v>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>[6, 4, -1]</t>
+        </is>
+      </c>
+      <c r="C2684" t="n">
+        <v>14.65513047718533</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" s="1" t="n">
+        <v>2683</v>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>[7, 3, 0]</t>
+        </is>
+      </c>
+      <c r="C2685" t="n">
+        <v>14.80450291688129</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" s="1" t="n">
+        <v>2684</v>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>[6, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C2686" t="n">
+        <v>14.50733833098945</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" s="1" t="n">
+        <v>2685</v>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>[6, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2687" t="n">
+        <v>14.07790118411756</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" s="1" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>[6, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2688" t="n">
+        <v>14.06640746011779</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" s="1" t="n">
+        <v>2687</v>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>[5, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C2689" t="n">
+        <v>14.1627293329127</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" s="1" t="n">
+        <v>2688</v>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>[7, -2, 3]</t>
+        </is>
+      </c>
+      <c r="C2690" t="n">
+        <v>14.08158525965355</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" s="1" t="n">
+        <v>2689</v>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>[7, 4, -1]</t>
+        </is>
+      </c>
+      <c r="C2691" t="n">
+        <v>14.42846118160731</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>[6, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2692" t="n">
+        <v>14.00161598531786</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" s="1" t="n">
+        <v>2691</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>[4, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2693" t="n">
+        <v>14.067778330511</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" s="1" t="n">
+        <v>2692</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>[4, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2694" t="n">
+        <v>13.98571653240042</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" s="1" t="n">
+        <v>2693</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>[7, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2695" t="n">
+        <v>14.06975517648636</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" s="1" t="n">
+        <v>2694</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>[7, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C2696" t="n">
+        <v>14.35411352982146</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" s="1" t="n">
+        <v>2695</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>[7, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2697" t="n">
+        <v>14.05723684871276</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" s="1" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>[5, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2698" t="n">
+        <v>13.95896677321096</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" s="1" t="n">
+        <v>2697</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>[6, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2699" t="n">
+        <v>14.03451694533897</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="1" t="n">
+        <v>2698</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>[6, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2700" t="n">
+        <v>14.07331007851763</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="1" t="n">
+        <v>2699</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>[5, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2701" t="n">
+        <v>14.04434061240704</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>[7, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2702" t="n">
+        <v>14.00404537864367</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="1" t="n">
+        <v>2701</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>[7, -2, 7]</t>
+        </is>
+      </c>
+      <c r="C2703" t="n">
+        <v>14.05723684902388</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" s="1" t="n">
+        <v>2702</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>[6, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C2704" t="n">
+        <v>14.00999727920767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
